--- a/Test Data/FC_Gallery_MainProcessor_Repeaters_FC600_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_MainProcessor_Repeaters_FC600_Series_Panels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3CFCFE-0C7F-4FB6-B644-BFA56B851278}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427B835D-A895-477D-AA7C-0B4EE23CD21B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/FC_Gallery_MainProcessor_Repeaters_FC600_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_MainProcessor_Repeaters_FC600_Series_Panels.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427B835D-A895-477D-AA7C-0B4EE23CD21B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB300A5-4435-4071-85D9-A84859DEAFB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
-    <sheet name="Belgium" sheetId="14" r:id="rId2"/>
+    <sheet name="Denmark" sheetId="22" r:id="rId2"/>
+    <sheet name="Belgium" sheetId="14" r:id="rId3"/>
+    <sheet name="Sweden" sheetId="23" r:id="rId4"/>
+    <sheet name="Norway" sheetId="24" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
   <si>
     <t>Wg</t>
   </si>
@@ -85,6 +88,24 @@
   </si>
   <si>
     <t>NGC-3445/T1650/T2140/T1631/1649/T1657/T1658/T2141/T2143</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-3446/T2005</t>
+  </si>
+  <si>
+    <t>Sweden Market</t>
+  </si>
+  <si>
+    <t>NGC-3465/T2023</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-3464/T1920</t>
   </si>
 </sst>
 </file>
@@ -508,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E633250-93FC-4A95-8297-DC7F9D0A64D2}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -615,6 +636,118 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807126BB-7528-425A-B530-648072DF6CE0}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5D5B9C-DBAD-4252-BD55-61600A87558A}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -724,4 +857,228 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983C2B9B-551D-4D64-BA7D-293B40C5CCB1}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D816A2-4D0C-448F-89FD-76FA48D617DC}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_MainProcessor_Repeaters_FC600_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_MainProcessor_Repeaters_FC600_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB300A5-4435-4071-85D9-A84859DEAFB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC792E1F-568E-4A26-8D5A-9519710CD408}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Belgium" sheetId="14" r:id="rId3"/>
     <sheet name="Sweden" sheetId="23" r:id="rId4"/>
     <sheet name="Norway" sheetId="24" r:id="rId5"/>
+    <sheet name="Italy" sheetId="25" r:id="rId6"/>
+    <sheet name="Spain" sheetId="26" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="27">
   <si>
     <t>Wg</t>
   </si>
@@ -106,6 +108,18 @@
   </si>
   <si>
     <t>NGC-3464/T1920</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3443/T1968</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3442/T2127</t>
   </si>
 </sst>
 </file>
@@ -975,7 +989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D816A2-4D0C-448F-89FD-76FA48D617DC}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
@@ -1081,4 +1095,228 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE918248-E404-43C8-8660-6DC7271EAD82}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998134A2-C669-41A9-B473-A2044DD8EC30}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_MainProcessor_Repeaters_FC600_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_MainProcessor_Repeaters_FC600_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC792E1F-568E-4A26-8D5A-9519710CD408}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BE43D5-3388-4DCF-A4BC-5E4800DE0DDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="28">
   <si>
     <t>Wg</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>NGC-3442/T2127</t>
+  </si>
+  <si>
+    <t>NGC-3003/T3832</t>
   </si>
 </sst>
 </file>
@@ -543,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E633250-93FC-4A95-8297-DC7F9D0A64D2}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,7 +592,9 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -1101,7 +1106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE918248-E404-43C8-8660-6DC7271EAD82}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
